--- a/datamining/final_data/sorted1996_nltk.xlsx
+++ b/datamining/final_data/sorted1996_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ALJ2"/>
+  <dimension ref="A1:AJZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,14 +462,14 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>students</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>performance</t>
@@ -487,87 +487,87 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>program</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>model</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>school</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>standards</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>standards</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>research</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>education</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>general</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>world</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>csikszentmihalyi</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>psychology</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -577,62 +577,62 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>csikszentmihalyi</t>
+          <t>intrinsic</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>caught</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>psychology</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>caught</t>
+          <t>use</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>intrinsic</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>insights</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>behaviors</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>insights</t>
+          <t>tradition</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>behaviors</t>
+          <t>awards</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -642,47 +642,47 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>national</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
+          <t>presidential</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
           <t>nagc</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>presidential</t>
-        </is>
-      </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>tradition</t>
+          <t>changes</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>awards</t>
+          <t>extraordinary</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>changes</t>
+          <t>class</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>passow</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>high</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>extraordinary</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -692,447 +692,447 @@
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>memoriam</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
+          <t>harry</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>a.</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
           <t>non-selected</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>memoriam</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>passow</t>
-        </is>
-      </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>perfectionism</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
           <t>triarchic</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>harry</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>a.</t>
-        </is>
-      </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>two</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>perfectionism</t>
+          <t>brubaker</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>dl</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>brubaker</t>
+          <t>women</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>dl</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>validity</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>validity</t>
+          <t>self</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>evolving</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
+          <t>millennium</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>feldman</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>dh</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>changing</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
           <t>study</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>instruction</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>abilities</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>emergence</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>valedictorians</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>margolin</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>becomes</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>arnold</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>goodness</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>lives</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>promise</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>personified</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>emergence</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>goodness</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gardner</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>mathematics</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>lack</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>self</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>'s</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>intellectually</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>presented</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>third</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>millennium</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>evolving</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>kerr</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>gw</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>high-potential</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>millar</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>creativity</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>authorized</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>biography</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>retraining</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>ba</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>kerr</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>mathematics</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>intellectually</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>cohort</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>reliability</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>sex-role</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>orientation</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>high-potential</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>gardner</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>sex-role</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>promise</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>dh</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>authentic</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>reliability</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>changing</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>understanding</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>examples</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>feldman</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>millar</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>why</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>understanding</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>biography</t>
-        </is>
-      </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>becomes</t>
+          <t>fischer</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>gw</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>arnold</t>
+          <t>king</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
+          <t>rm</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
           <t>cf</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>rm</t>
-        </is>
-      </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>king</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>obtained</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>valedictorians</t>
+          <t>personnel</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>lives</t>
+          <t>preparation</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>significantly</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>guide</t>
+          <t>using</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>fischer</t>
+          <t>give</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>authorized</t>
+          <t>''</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>``</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>obtained</t>
+          <t>gifts</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>investing</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>resource</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>schwartz</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
           <t>expert</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>personnel</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>preparation</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>results</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>development</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>fields</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>fields</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
@@ -1142,302 +1142,302 @@
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>performance-based</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
+          <t>revealed</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>identified</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>tasks</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>theory</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>characters</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>cognitive</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>adjustment</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
           <t>mathematically</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>adjustment</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>characters</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>reading</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>identified</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>tasks</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>give</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>strategies</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>''</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>gifts</t>
-        </is>
-      </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>``</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>investing</t>
+          <t>experts</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>ll</t>
+          <t>benchmarks</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>models</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>schwartz</t>
+          <t>may</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>attributional</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>performance-based</t>
+          <t>student</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>failures</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>revealed</t>
+          <t>self-nominations</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>minority</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>criteria</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>attributional</t>
+          <t>explanation</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>models</t>
+          <t>motivational</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>effort</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>criteria</t>
+          <t>data</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>experts</t>
+          <t>competence</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>benchmarks</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>effort</t>
+          <t>found</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>minority</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>competence</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>failures</t>
+          <t>procedures</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>adults</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>explanation</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>self-nominations</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>incidence</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>motivational</t>
+          <t>assessments</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>structure</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>procedures</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>beliefs</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>perfectionistic</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>measure</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>beliefs</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>middle</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>including</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
           <t>used</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
-        <is>
-          <t>structure</t>
-        </is>
-      </c>
-      <c r="GQ1" s="1" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>perfectionistic</t>
+          <t>techniques</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>assessments</t>
+          <t>reviewed</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>scorers</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
@@ -1447,3977 +1447,3797 @@
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>reviewed</t>
+          <t>forms</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>talents</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>described</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>scorers</t>
+          <t>types</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>incidence</t>
+          <t>also</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>better</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>techniques</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>forms</t>
+          <t>greater</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>performed</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>exceptional</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>anchoring</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>described</t>
+          <t>made</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
+          <t>identifying</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>kindergarten</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>different</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>excellent</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>exemplars</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
           <t>instrument</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
-        <is>
-          <t>needed</t>
-        </is>
-      </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>greater</t>
-        </is>
-      </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>teacher</t>
-        </is>
-      </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>better</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>talents</t>
-        </is>
-      </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>five</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>athleticism</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
+          <t>analysis</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
           <t>low</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
-        <is>
-          <t>kindergarten</t>
-        </is>
-      </c>
-      <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>athleticism</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>local</t>
-        </is>
-      </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>perceptions</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
           <t>levels</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
-        <is>
-          <t>perceptions</t>
-        </is>
-      </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>battery</t>
-        </is>
-      </c>
-      <c r="IA1" s="1" t="inlineStr">
-        <is>
-          <t>five</t>
-        </is>
-      </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>income</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>successes</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>sciences</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>anchoring</t>
+          <t>score</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>performed</t>
+          <t>four</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>types</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>exemplars</t>
+          <t>participation</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>excellent</t>
+          <t>graduate</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>either</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>graduate</t>
+          <t>diverse</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>history</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>fractions</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>collaboration</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>brief</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>sciences</t>
+          <t>tii</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>control</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>scoring</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>fractions</t>
+          <t>interface</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>diverse</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>observation</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>music</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>collaboration</t>
+          <t>dance</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>successes</t>
+          <t>cooperation</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>participation</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>domain-specific</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>cooperation</t>
+          <t>one</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>domain-specific</t>
+          <t>consistent</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>scoring</t>
+          <t>highest</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>interface</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>brief</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>among</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>construct</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>finally</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>construct</t>
+          <t>describing</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>provide</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>provide</t>
+          <t>science</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>describing</t>
+          <t>upper</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>observation</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>consistent</t>
+          <t>based</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>dance</t>
+          <t>support</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>tii</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>finally</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>associated</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>nominations</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>pnf</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>highest</t>
+          <t>much</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>lower</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>mainly</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>nomination</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>orientations</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>average-achieving</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>metacognitive</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>type</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>average-achieving</t>
+          <t>questionnaire</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>upper</t>
+          <t>theories</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>lower</t>
+          <t>across</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>nomination</t>
+          <t>related</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>orientations</t>
+          <t>involvement</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>questionnaire</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>metacognitive</t>
+          <t>efforts</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>pnf</t>
+          <t>following</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>nominations</t>
+          <t>application</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>theories</t>
+          <t>challenged</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>mainly</t>
+          <t>intelligences</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>instruments</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
+          <t>administered</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>basis</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
           <t>terms</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="LA1" s="1" t="inlineStr">
-        <is>
-          <t>application</t>
-        </is>
-      </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>efforts</t>
+          <t>others</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>following</t>
+          <t>show</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>instruments</t>
+          <t>facilitate</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>intelligences</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>administered</t>
+          <t>force</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>reasoning</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>evaluations</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>three-stage</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>however</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
+          <t>staff</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>purdue</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
           <t>outcomes</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
-      </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>provided</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>promising</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>especially</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>association</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>similar</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>instructional</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>impact</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>conceptual</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>specific</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>unified</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="LQ1" s="1" t="inlineStr">
-        <is>
-          <t>similar</t>
-        </is>
-      </c>
-      <c r="LR1" s="1" t="inlineStr">
-        <is>
-          <t>association</t>
-        </is>
-      </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>force</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>challenged</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>areas</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>promising</t>
-        </is>
-      </c>
-      <c r="LW1" s="1" t="inlineStr">
-        <is>
-          <t>especially</t>
-        </is>
-      </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>matter</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
-        <is>
-          <t>few</t>
-        </is>
-      </c>
-      <c r="LZ1" s="1" t="inlineStr">
-        <is>
-          <t>evaluations</t>
-        </is>
-      </c>
-      <c r="MA1" s="1" t="inlineStr">
-        <is>
-          <t>based</t>
-        </is>
-      </c>
-      <c r="MB1" s="1" t="inlineStr">
-        <is>
-          <t>facilitate</t>
-        </is>
-      </c>
-      <c r="MC1" s="1" t="inlineStr">
-        <is>
-          <t>involvement</t>
-        </is>
-      </c>
-      <c r="MD1" s="1" t="inlineStr">
-        <is>
-          <t>associated</t>
-        </is>
-      </c>
-      <c r="ME1" s="1" t="inlineStr">
-        <is>
-          <t>purdue</t>
-        </is>
-      </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>basis</t>
+          <t>superior</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>presents</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>instructional</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>implement</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>need</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>unified</t>
+          <t>evaluating</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>appropriate</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>staff</t>
+          <t>previously</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>fit</t>
+          <t>important</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>ages</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>present</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>three-stage</t>
+          <t>rate</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>ages</t>
+          <t>stereotypes</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>suggested</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>implement</t>
+          <t>total</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>choices</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>variety</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>presents</t>
+          <t>female</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>frequency</t>
         </is>
       </c>
       <c r="MY1" s="1" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="MZ1" s="1" t="inlineStr">
         <is>
-          <t>conceptual</t>
+          <t>frequent</t>
         </is>
       </c>
       <c r="NA1" s="1" t="inlineStr">
         <is>
-          <t>previously</t>
+          <t>conducted</t>
         </is>
       </c>
       <c r="NB1" s="1" t="inlineStr">
         <is>
-          <t>however</t>
+          <t>recognized</t>
         </is>
       </c>
       <c r="NC1" s="1" t="inlineStr">
         <is>
-          <t>appropriate</t>
+          <t>excellence</t>
         </is>
       </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
-          <t>definition</t>
+          <t>cognitively</t>
         </is>
       </c>
       <c r="NE1" s="1" t="inlineStr">
         <is>
-          <t>evaluating</t>
+          <t>effective</t>
         </is>
       </c>
       <c r="NF1" s="1" t="inlineStr">
         <is>
-          <t>stereotypes</t>
+          <t>often</t>
         </is>
       </c>
       <c r="NG1" s="1" t="inlineStr">
         <is>
-          <t>suggested</t>
+          <t>reports</t>
         </is>
       </c>
       <c r="NH1" s="1" t="inlineStr">
         <is>
-          <t>recognized</t>
+          <t>information</t>
         </is>
       </c>
       <c r="NI1" s="1" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>ethnic</t>
         </is>
       </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>variety</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>cognitively</t>
+          <t>global</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>six</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>concepts</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>effective</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>inferring</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>superior</t>
+          <t>test</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>excellence</t>
+          <t>studious</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>conducted</t>
+          <t>contexts</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>demonstrated</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>reports</t>
+          <t>leading</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>frequency</t>
+          <t>recently</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>precalculus</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
+          <t>fraction</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>deep</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>received</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>selective</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>differing</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>patterns</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>explanations</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>search</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>students-who</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
           <t>express</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>settings</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>rather</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>describes</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>domains</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>appropriateness</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>classifications</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>anxious</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>consequences</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>consideration</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>adolescent</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>brilliant</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>attended</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>aspects</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>multidimensional</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>suggestion</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>examining</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
-        <is>
-          <t>explanations</t>
-        </is>
-      </c>
-      <c r="OA1" s="1" t="inlineStr">
-        <is>
-          <t>received</t>
-        </is>
-      </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>bsi</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>ed</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>explored</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>psychological</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>normative</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>limited</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>universities</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>priori</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>suggestions</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>comparisons</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="OD1" s="1" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-      <c r="OE1" s="1" t="inlineStr">
-        <is>
-          <t>fraction</t>
-        </is>
-      </c>
-      <c r="OF1" s="1" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="OG1" s="1" t="inlineStr">
-        <is>
-          <t>classifications</t>
-        </is>
-      </c>
-      <c r="OH1" s="1" t="inlineStr">
-        <is>
-          <t>consideration</t>
-        </is>
-      </c>
-      <c r="OI1" s="1" t="inlineStr">
-        <is>
-          <t>consequences</t>
-        </is>
-      </c>
-      <c r="OJ1" s="1" t="inlineStr">
-        <is>
-          <t>normative</t>
-        </is>
-      </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>comparisons</t>
-        </is>
-      </c>
-      <c r="OL1" s="1" t="inlineStr">
-        <is>
-          <t>symptom</t>
-        </is>
-      </c>
-      <c r="OM1" s="1" t="inlineStr">
-        <is>
-          <t>ed</t>
-        </is>
-      </c>
-      <c r="ON1" s="1" t="inlineStr">
-        <is>
-          <t>bsi</t>
-        </is>
-      </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>suggestion</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
-        <is>
-          <t>attended</t>
-        </is>
-      </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>precalculus</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>adolescent</t>
-        </is>
-      </c>
-      <c r="OS1" s="1" t="inlineStr">
-        <is>
-          <t>psychological</t>
-        </is>
-      </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>adjusted</t>
-        </is>
-      </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>274</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>rest</t>
-        </is>
-      </c>
-      <c r="OW1" s="1" t="inlineStr">
-        <is>
-          <t>search</t>
-        </is>
-      </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>students-who</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>summer</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>priori</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>deep</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>multidimensional</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>performances</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>ethnic</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>relationship</t>
-        </is>
-      </c>
-      <c r="PG1" s="1" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>leading</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>inferring</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>explored</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>six</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>concepts</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>contexts</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>activities</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>appropriateness</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>limited</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>overview</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>patterns</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>differing</t>
-        </is>
-      </c>
       <c r="PV1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>context</t>
         </is>
       </c>
       <c r="PW1" s="1" t="inlineStr">
         <is>
-          <t>brilliant</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="PX1" s="1" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>improve</t>
         </is>
       </c>
       <c r="PY1" s="1" t="inlineStr">
         <is>
-          <t>describes</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="PZ1" s="1" t="inlineStr">
         <is>
-          <t>universities</t>
+          <t>although</t>
         </is>
       </c>
       <c r="QA1" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>could</t>
         </is>
       </c>
       <c r="QB1" s="1" t="inlineStr">
         <is>
-          <t>demonstrated</t>
+          <t>become</t>
         </is>
       </c>
       <c r="QC1" s="1" t="inlineStr">
         <is>
-          <t>frequent</t>
+          <t>inhibit</t>
         </is>
       </c>
       <c r="QD1" s="1" t="inlineStr">
         <is>
-          <t>settings</t>
+          <t>curricular</t>
         </is>
       </c>
       <c r="QE1" s="1" t="inlineStr">
         <is>
-          <t>choices</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="QF1" s="1" t="inlineStr">
         <is>
-          <t>rather</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="QG1" s="1" t="inlineStr">
         <is>
-          <t>selective</t>
+          <t>design</t>
         </is>
       </c>
       <c r="QH1" s="1" t="inlineStr">
         <is>
-          <t>studious</t>
+          <t>hypothesized</t>
         </is>
       </c>
       <c r="QI1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>developed</t>
         </is>
       </c>
       <c r="QJ1" s="1" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>evaluate</t>
         </is>
       </c>
       <c r="QK1" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="QL1" s="1" t="inlineStr">
         <is>
-          <t>evaluate</t>
+          <t>17</t>
         </is>
       </c>
       <c r="QM1" s="1" t="inlineStr">
         <is>
-          <t>curricular</t>
+          <t>well</t>
         </is>
       </c>
       <c r="QN1" s="1" t="inlineStr">
         <is>
-          <t>become</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="QO1" s="1" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>representing</t>
         </is>
       </c>
       <c r="QP1" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>topic</t>
         </is>
       </c>
       <c r="QQ1" s="1" t="inlineStr">
         <is>
-          <t>hypothesized</t>
+          <t>decisions</t>
         </is>
       </c>
       <c r="QR1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>example</t>
         </is>
       </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>increases</t>
         </is>
       </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>identifications</t>
         </is>
       </c>
       <c r="QU1" s="1" t="inlineStr">
         <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>former</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>particular</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>practical</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>toward</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
           <t>programming</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="QW1" s="1" t="inlineStr">
-        <is>
-          <t>outcome</t>
-        </is>
-      </c>
-      <c r="QX1" s="1" t="inlineStr">
-        <is>
-          <t>particular</t>
-        </is>
-      </c>
-      <c r="QY1" s="1" t="inlineStr">
-        <is>
-          <t>practical</t>
-        </is>
-      </c>
-      <c r="QZ1" s="1" t="inlineStr">
-        <is>
-          <t>suggestions</t>
-        </is>
-      </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>anxious</t>
-        </is>
-      </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>sti</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
           <t>interest</t>
         </is>
       </c>
-      <c r="RD1" s="1" t="inlineStr">
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>determining</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>dents</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>curricula</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>considers</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>comparing</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>assessed</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
         <is>
           <t>tended</t>
         </is>
       </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>representing</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
-        <is>
-          <t>domains</t>
-        </is>
-      </c>
-      <c r="RG1" s="1" t="inlineStr">
-        <is>
-          <t>seven</t>
-        </is>
-      </c>
-      <c r="RH1" s="1" t="inlineStr">
-        <is>
-          <t>topic</t>
-        </is>
-      </c>
-      <c r="RI1" s="1" t="inlineStr">
-        <is>
-          <t>recently</t>
-        </is>
-      </c>
-      <c r="RJ1" s="1" t="inlineStr">
-        <is>
-          <t>strategy</t>
-        </is>
-      </c>
-      <c r="RK1" s="1" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="RL1" s="1" t="inlineStr">
-        <is>
-          <t>increases</t>
-        </is>
-      </c>
-      <c r="RM1" s="1" t="inlineStr">
-        <is>
-          <t>determining</t>
-        </is>
-      </c>
       <c r="RN1" s="1" t="inlineStr">
         <is>
-          <t>aspects</t>
+          <t>assess</t>
         </is>
       </c>
       <c r="RO1" s="1" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="RP1" s="1" t="inlineStr">
         <is>
-          <t>comparing</t>
+          <t>less</t>
         </is>
       </c>
       <c r="RQ1" s="1" t="inlineStr">
         <is>
-          <t>considers</t>
+          <t>matched</t>
         </is>
       </c>
       <c r="RR1" s="1" t="inlineStr">
         <is>
-          <t>curricula</t>
+          <t>10</t>
         </is>
       </c>
       <c r="RS1" s="1" t="inlineStr">
         <is>
-          <t>decisions</t>
+          <t>validation</t>
         </is>
       </c>
       <c r="RT1" s="1" t="inlineStr">
         <is>
-          <t>dents</t>
+          <t>adequately</t>
         </is>
       </c>
       <c r="RU1" s="1" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>strongly</t>
         </is>
       </c>
       <c r="RV1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>number</t>
         </is>
       </c>
       <c r="RW1" s="1" t="inlineStr">
         <is>
-          <t>example</t>
+          <t>investigate</t>
         </is>
       </c>
       <c r="RX1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>focused</t>
         </is>
       </c>
       <c r="RY1" s="1" t="inlineStr">
         <is>
-          <t>former</t>
+          <t>relations</t>
         </is>
       </c>
       <c r="RZ1" s="1" t="inlineStr">
         <is>
-          <t>identifications</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="SA1" s="1" t="inlineStr">
         <is>
-          <t>sti</t>
+          <t>content</t>
         </is>
       </c>
       <c r="SB1" s="1" t="inlineStr">
         <is>
-          <t>strongly</t>
+          <t>clear</t>
         </is>
       </c>
       <c r="SC1" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>calibrate</t>
         </is>
       </c>
       <c r="SD1" s="1" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>argument</t>
         </is>
       </c>
       <c r="SE1" s="1" t="inlineStr">
         <is>
-          <t>improve</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="SF1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>fearful</t>
         </is>
       </c>
       <c r="SG1" s="1" t="inlineStr">
         <is>
-          <t>inhibit</t>
+          <t>essay</t>
         </is>
       </c>
       <c r="SH1" s="1" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>form</t>
         </is>
       </c>
       <c r="SI1" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>females</t>
         </is>
       </c>
       <c r="SJ1" s="1" t="inlineStr">
         <is>
-          <t>adequately</t>
+          <t>grounded</t>
         </is>
       </c>
       <c r="SK1" s="1" t="inlineStr">
         <is>
-          <t>matched</t>
+          <t>male</t>
         </is>
       </c>
       <c r="SL1" s="1" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>several</t>
         </is>
       </c>
       <c r="SM1" s="1" t="inlineStr">
         <is>
-          <t>relations</t>
+          <t>though</t>
         </is>
       </c>
       <c r="SN1" s="1" t="inlineStr">
         <is>
-          <t>validation</t>
+          <t>certain</t>
         </is>
       </c>
       <c r="SO1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>system</t>
         </is>
       </c>
       <c r="SP1" s="1" t="inlineStr">
         <is>
-          <t>investigate</t>
+          <t>even</t>
         </is>
       </c>
       <c r="SQ1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>superlative</t>
         </is>
       </c>
       <c r="SR1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>standard</t>
         </is>
       </c>
       <c r="SS1" s="1" t="inlineStr">
         <is>
-          <t>focused</t>
+          <t>set</t>
         </is>
       </c>
       <c r="ST1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>reach</t>
         </is>
       </c>
       <c r="SU1" s="1" t="inlineStr">
         <is>
-          <t>assess</t>
+          <t>point</t>
         </is>
       </c>
       <c r="SV1" s="1" t="inlineStr">
         <is>
-          <t>assessed</t>
+          <t>summarized</t>
         </is>
       </c>
       <c r="SW1" s="1" t="inlineStr">
         <is>
-          <t>superlative</t>
+          <t>initiatives</t>
         </is>
       </c>
       <c r="SX1" s="1" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>part</t>
         </is>
       </c>
       <c r="SY1" s="1" t="inlineStr">
         <is>
-          <t>though</t>
+          <t>equity</t>
         </is>
       </c>
       <c r="SZ1" s="1" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>goals</t>
         </is>
       </c>
       <c r="TA1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="TB1" s="1" t="inlineStr">
         <is>
-          <t>certain</t>
+          <t>increased</t>
         </is>
       </c>
       <c r="TC1" s="1" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>increasing</t>
         </is>
       </c>
       <c r="TD1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>isolation</t>
         </is>
       </c>
       <c r="TE1" s="1" t="inlineStr">
         <is>
-          <t>solution</t>
+          <t>regarding</t>
         </is>
       </c>
       <c r="TF1" s="1" t="inlineStr">
         <is>
-          <t>summarized</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="TG1" s="1" t="inlineStr">
         <is>
-          <t>calibrate</t>
+          <t>practitioners</t>
         </is>
       </c>
       <c r="TH1" s="1" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>resulting</t>
         </is>
       </c>
       <c r="TI1" s="1" t="inlineStr">
         <is>
-          <t>clear</t>
+          <t>seemed</t>
         </is>
       </c>
       <c r="TJ1" s="1" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>tensions</t>
         </is>
       </c>
       <c r="TK1" s="1" t="inlineStr">
         <is>
-          <t>fearful</t>
+          <t>commissioned</t>
         </is>
       </c>
       <c r="TL1" s="1" t="inlineStr">
         <is>
-          <t>grounded</t>
+          <t>viewpoints</t>
         </is>
       </c>
       <c r="TM1" s="1" t="inlineStr">
         <is>
-          <t>reach</t>
+          <t>divergent</t>
         </is>
       </c>
       <c r="TN1" s="1" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>linkage</t>
         </is>
       </c>
       <c r="TO1" s="1" t="inlineStr">
         <is>
-          <t>essay</t>
+          <t>division</t>
         </is>
       </c>
       <c r="TP1" s="1" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>symposia</t>
         </is>
       </c>
       <c r="TQ1" s="1" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>council</t>
         </is>
       </c>
       <c r="TR1" s="1" t="inlineStr">
         <is>
-          <t>initiatives</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="TS1" s="1" t="inlineStr">
         <is>
-          <t>point</t>
+          <t>calls</t>
         </is>
       </c>
       <c r="TT1" s="1" t="inlineStr">
         <is>
-          <t>goals</t>
+          <t>institutes</t>
         </is>
       </c>
       <c r="TU1" s="1" t="inlineStr">
         <is>
-          <t>seemed</t>
+          <t>ncate</t>
         </is>
       </c>
       <c r="TV1" s="1" t="inlineStr">
         <is>
-          <t>divergent</t>
+          <t>roles</t>
         </is>
       </c>
       <c r="TW1" s="1" t="inlineStr">
         <is>
-          <t>resulting</t>
+          <t>played</t>
         </is>
       </c>
       <c r="TX1" s="1" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>accreditation</t>
         </is>
       </c>
       <c r="TY1" s="1" t="inlineStr">
         <is>
-          <t>regarding</t>
+          <t>attitudes</t>
         </is>
       </c>
       <c r="TZ1" s="1" t="inlineStr">
         <is>
-          <t>guidance</t>
+          <t>consisted</t>
         </is>
       </c>
       <c r="UA1" s="1" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>391</t>
         </is>
       </c>
       <c r="UB1" s="1" t="inlineStr">
         <is>
-          <t>increased</t>
+          <t>worth</t>
         </is>
       </c>
       <c r="UC1" s="1" t="inlineStr">
         <is>
-          <t>practitioners</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="UD1" s="1" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>slef-nominations</t>
         </is>
       </c>
       <c r="UE1" s="1" t="inlineStr">
         <is>
-          <t>perspectives</t>
+          <t>41</t>
         </is>
       </c>
       <c r="UF1" s="1" t="inlineStr">
         <is>
-          <t>commissioned</t>
+          <t>addressed</t>
         </is>
       </c>
       <c r="UG1" s="1" t="inlineStr">
         <is>
-          <t>linkage</t>
+          <t>allowed</t>
         </is>
       </c>
       <c r="UH1" s="1" t="inlineStr">
         <is>
-          <t>isolation</t>
+          <t>almost</t>
         </is>
       </c>
       <c r="UI1" s="1" t="inlineStr">
         <is>
-          <t>calls</t>
+          <t>anova</t>
         </is>
       </c>
       <c r="UJ1" s="1" t="inlineStr">
         <is>
-          <t>played</t>
+          <t>attributed</t>
         </is>
       </c>
       <c r="UK1" s="1" t="inlineStr">
         <is>
-          <t>ncate</t>
+          <t>classes</t>
         </is>
       </c>
       <c r="UL1" s="1" t="inlineStr">
         <is>
-          <t>accreditation</t>
+          <t>perceptible</t>
         </is>
       </c>
       <c r="UM1" s="1" t="inlineStr">
         <is>
-          <t>council</t>
+          <t>rank</t>
         </is>
       </c>
       <c r="UN1" s="1" t="inlineStr">
         <is>
-          <t>females</t>
+          <t>correlation</t>
         </is>
       </c>
       <c r="UO1" s="1" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>self-</t>
         </is>
       </c>
       <c r="UP1" s="1" t="inlineStr">
         <is>
-          <t>division</t>
+          <t>designate</t>
         </is>
       </c>
       <c r="UQ1" s="1" t="inlineStr">
         <is>
-          <t>institutes</t>
+          <t>12-item</t>
         </is>
       </c>
       <c r="UR1" s="1" t="inlineStr">
         <is>
-          <t>several</t>
+          <t>divided</t>
         </is>
       </c>
       <c r="US1" s="1" t="inlineStr">
         <is>
-          <t>tensions</t>
+          <t>evenly</t>
         </is>
       </c>
       <c r="UT1" s="1" t="inlineStr">
         <is>
-          <t>roles</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="UU1" s="1" t="inlineStr">
         <is>
-          <t>symposia</t>
+          <t>influenced</t>
         </is>
       </c>
       <c r="UV1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>interacted</t>
         </is>
       </c>
       <c r="UW1" s="1" t="inlineStr">
         <is>
-          <t>viewpoints</t>
+          <t>repeated</t>
         </is>
       </c>
       <c r="UX1" s="1" t="inlineStr">
         <is>
+          <t>observed</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>correlated</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>evoke</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>.44</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>audition</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>hidden</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>judges</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>multisession</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>estimates</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>overlooked</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>discovering</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>raters</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>bilingual</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>readily</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>beyond</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>arts</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>.23</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>artistic</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>artful</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>agreement</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>adequate</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>specialists</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>stability</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>strong</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>throughout</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>urban</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
           <t>words</t>
         </is>
       </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>audition</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>arts</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>adequate</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>agreement</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>artistic</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>artful</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>estimates</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>beyond</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>overlooked</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>specialists</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
+      <c r="WA1" s="1" t="inlineStr">
         <is>
           <t>recognize</t>
         </is>
       </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>stability</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>readily</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>raters</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>throughout</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>bilingual</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>urban</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>judges</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>hidden</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>evoke</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>discovering</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>multisession</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
+      <c r="WB1" s="1" t="inlineStr">
         <is>
           <t>summed</t>
         </is>
       </c>
-      <c r="VY1" s="1" t="inlineStr">
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>hundred</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>open-ended</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>computed</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>consisting</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>distributions</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>eight</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>nine</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>outliers</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>performing</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>presence</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>prove</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>white/hispanic</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>black/nonhispanic</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>hundred</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>presence</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>performing</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>outliers</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>open-ended</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>nine</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>eight</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>white/hispanic</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>distributions</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>consisting</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>computed</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>child</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>black/nonhispanic</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>prove</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>anecdotal</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>four-factor</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>goodness-of-fit</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>i.e.</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>indices</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>al.</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>investigated</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>iq</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>achieved</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>contribute</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>exemplar</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>evaluated</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>differential</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>creatively</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>distinction</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>wherefore</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>conceptualized</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>conceptualizations</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>clarification</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>construct-validation</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>thou</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>discusses</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>intelligence</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>future</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>high-school</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>investigates</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>lie</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>mi-based</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
         <is>
           <t>standardized</t>
         </is>
       </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>designate</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>divided</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>evenly</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>goal</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>move</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>college-level</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>popularity</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>portfolio</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>questions</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>raise</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>recent</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>characterize</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>indicate</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>empirical</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>typology</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>survivability</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>researchers</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>reaction</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>qualitative</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>methodology</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>feel</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>extracurricular</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>engaged</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>engage</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>effort/selected</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>documented</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>differentiate</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>bored</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>attempt</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>strivings</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>striving</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>stimulate</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>et</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>frost</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>frustrate</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>gathered</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>graders</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>encouraged</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>labeling</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>nationally</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>needs</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>sixth</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>socioeconomic</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>statistically</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>ethnically</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>mismatched</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>self-perceptions</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>next</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>reported</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>eleven</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>inadequate</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>inadequately</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>normed</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>opinion</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>psychometric</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>scales</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>subscales</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>thus</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>supervisory</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>within</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>perceiving</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>metacognition</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>likely</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>hips</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>far</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>confidence</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>comprehensive</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>competent</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>causes</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>currently</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>affected</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>avoided</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>represented</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>respect</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>postulated</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>particularly</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>original/creative</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>acceptable</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
         <is>
           <t>behavior</t>
         </is>
       </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>influenced</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>whose</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>wide</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>campbell</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>academically</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>and/or</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>taught</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>art</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>opens</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>checklists</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>colleagues</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>corresponds</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>culturally</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>offered</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>interacted</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>college-level</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>construct-validation</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>its</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>discusses</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>high-school</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>currently</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>observed</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>perceptible</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>wherefore</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>thou</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>z</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>worth</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>campbell</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>variables</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>acceptable</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>slef-nominations</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>rank</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>self-</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>repeated</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>avoided</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>questions</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>portfolio</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>popularity</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>allowed</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>intelligence</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>move</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>mi-based</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>almost</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>mismatched</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>investigates</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>anova</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>next</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>offered</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>future</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>attributed</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>and/or</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>ethnically</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>encouraged</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>opens</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>classes</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>consisted</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>culturally</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>corresponds</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>colleagues</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>hips</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>checklists</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>away</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>taught</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>art</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>correlated</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>addressed</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>.44</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>subscales</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>supervisory</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>technology</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>effort/selected</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>documented</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>differentiate</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>bored</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>attempt</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>within</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>affected</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>perceiving</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>put</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>reported</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>self-perceptions</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>thus</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>achieved</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>confidence</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>comprehensive</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>competent</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>causes</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>australia</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>engaged</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>engage</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>extracurricular</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>researchers</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>391</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>eleven</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>12-item</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>embedded</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>inadequate</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>inadequately</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>recent</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>.23</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>likely</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>metacognition</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>feel</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>survivability</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>raise</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>normed</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>methodology</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>opinion</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>reaction</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>qualitative</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>psychometric</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>scales</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>focus</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>far</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>include</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>adolescence</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>values</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>underrepresented</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>underrepresentation</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>definitions</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>demographics</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>fundamental</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>linguistic</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>american</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>monitoring</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>accomplish</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>occurred</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>occurring</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>paradigm</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>accompanied</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>resolve</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>shift</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>society</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>thesis</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>cultural</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>methods</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>early</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>subtest</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>374,527</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>4,751</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>necessary</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>career</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>participants</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
+          <t>providing</t>
+        </is>
+      </c>
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>self-evaluation</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>makers</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>skilled</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>theoretical</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>undertaken</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>year-long</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>potentiation</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>moon</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>kolloff</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>feldhusen</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
+          <t>accountability</t>
+        </is>
+      </c>
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>evaluators</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
+          <t>decision</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>creation</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
+        <is>
+          <t>coordinators</t>
+        </is>
+      </c>
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>bases</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>administrators</t>
+        </is>
+      </c>
+      <c r="AEO1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="AEP1" s="1" t="inlineStr">
+        <is>
+          <t>improvement</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="AER1" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="AES1" s="1" t="inlineStr">
+        <is>
+          <t>relative</t>
+        </is>
+      </c>
+      <c r="AET1" s="1" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="AEU1" s="1" t="inlineStr">
+        <is>
+          <t>social</t>
+        </is>
+      </c>
+      <c r="AEV1" s="1" t="inlineStr">
+        <is>
+          <t>fetterman</t>
+        </is>
+      </c>
+      <c r="AEW1" s="1" t="inlineStr">
+        <is>
+          <t>helping</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
+        <is>
+          <t>fall</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>profile</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>childhood</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>took</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>analyses</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>subtests</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>enjoy</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
         <is>
           <t>sophomores</t>
         </is>
       </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>took</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>subtest</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>subtests</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>adolescence</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>mostly</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>included</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
+          <t>fullerton</t>
+        </is>
+      </c>
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
+          <t>extent</t>
+        </is>
+      </c>
+      <c r="AFL1" s="1" t="inlineStr">
         <is>
           <t>assesses</t>
         </is>
       </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>analyses</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>social</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>selection</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>relative</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>childhood</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>wide</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>accompanied</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>accomplish</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>american</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>continue</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>cultural</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>definitions</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>demographics</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>fundamental</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>linguistic</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>methods</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>monitoring</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>occurred</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>occurring</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>paradigm</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>resolve</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>shift</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>society</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>thesis</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>underrepresentation</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>underrepresented</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>values</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>whose</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>392</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>categories</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>characterize</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>clarification</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>conceptualizations</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>conceptualized</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>contribute</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>creatively</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>evaluated</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>exemplar</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>four-factor</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>goodness-of-fit</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>i.e.</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>indices</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>investigated</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>iq</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>lie</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>original/creative</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>particularly</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>postulated</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>represented</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>respect</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>profile</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>ethnicity</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>differential</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>distinction</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>418</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>included</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
-        <is>
-          <t>needs</t>
-        </is>
-      </c>
-      <c r="AEF1" s="1" t="inlineStr">
-        <is>
-          <t>nationally</t>
-        </is>
-      </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>self-evaluation</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>socioeconomic</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>providing</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>participants</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>necessary</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>moon</t>
-        </is>
-      </c>
-      <c r="AEM1" s="1" t="inlineStr">
-        <is>
-          <t>little</t>
-        </is>
-      </c>
-      <c r="AEN1" s="1" t="inlineStr">
-        <is>
-          <t>labeling</t>
-        </is>
-      </c>
-      <c r="AEO1" s="1" t="inlineStr">
-        <is>
-          <t>potentiation</t>
-        </is>
-      </c>
-      <c r="AEP1" s="1" t="inlineStr">
-        <is>
-          <t>sixth</t>
-        </is>
-      </c>
-      <c r="AEQ1" s="1" t="inlineStr">
-        <is>
-          <t>statistically</t>
-        </is>
-      </c>
-      <c r="AER1" s="1" t="inlineStr">
-        <is>
-          <t>makers</t>
-        </is>
-      </c>
-      <c r="AES1" s="1" t="inlineStr">
-        <is>
-          <t>typology</t>
-        </is>
-      </c>
-      <c r="AET1" s="1" t="inlineStr">
-        <is>
-          <t>anecdotal</t>
-        </is>
-      </c>
-      <c r="AEU1" s="1" t="inlineStr">
-        <is>
-          <t>strivings</t>
-        </is>
-      </c>
-      <c r="AEV1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="AEW1" s="1" t="inlineStr">
-        <is>
-          <t>striving</t>
-        </is>
-      </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>stimulate</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>years</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>math</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>al.</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>academically</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>year-long</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>undertaken</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>theoretical</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>skilled</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>indicate</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>empirical</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>fullerton</t>
-        </is>
-      </c>
       <c r="AFM1" s="1" t="inlineStr">
         <is>
-          <t>frustrate</t>
+          <t>fewer</t>
         </is>
       </c>
       <c r="AFN1" s="1" t="inlineStr">
         <is>
-          <t>coordinators</t>
+          <t>expressed</t>
         </is>
       </c>
       <c r="AFO1" s="1" t="inlineStr">
         <is>
-          <t>bases</t>
+          <t>failed</t>
         </is>
       </c>
       <c r="AFP1" s="1" t="inlineStr">
         <is>
-          <t>enjoy</t>
+          <t>fifth</t>
         </is>
       </c>
       <c r="AFQ1" s="1" t="inlineStr">
         <is>
-          <t>administrators</t>
+          <t>expression</t>
         </is>
       </c>
       <c r="AFR1" s="1" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>misconceptions</t>
         </is>
       </c>
       <c r="AFS1" s="1" t="inlineStr">
         <is>
-          <t>374,527</t>
+          <t>effective-additional</t>
         </is>
       </c>
       <c r="AFT1" s="1" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>justification</t>
         </is>
       </c>
       <c r="AFU1" s="1" t="inlineStr">
         <is>
-          <t>4,751</t>
+          <t>days</t>
         </is>
       </c>
       <c r="AFV1" s="1" t="inlineStr">
         <is>
-          <t>creation</t>
+          <t>conceptualization</t>
         </is>
       </c>
       <c r="AFW1" s="1" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="AFX1" s="1" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>collected</t>
         </is>
       </c>
       <c r="AFY1" s="1" t="inlineStr">
         <is>
-          <t>accountability</t>
+          <t>assessing</t>
         </is>
       </c>
       <c r="AFZ1" s="1" t="inlineStr">
         <is>
-          <t>frost</t>
+          <t>additional</t>
         </is>
       </c>
       <c r="AGA1" s="1" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="AGB1" s="1" t="inlineStr">
         <is>
-          <t>mostly</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AGC1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>540</t>
         </is>
       </c>
       <c r="AGD1" s="1" t="inlineStr">
         <is>
-          <t>gathered</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AGE1" s="1" t="inlineStr">
         <is>
-          <t>fall</t>
+          <t>displayed</t>
         </is>
       </c>
       <c r="AGF1" s="1" t="inlineStr">
         <is>
-          <t>fetterman</t>
+          <t>least</t>
         </is>
       </c>
       <c r="AGG1" s="1" t="inlineStr">
         <is>
-          <t>feedback</t>
+          <t>larger</t>
         </is>
       </c>
       <c r="AGH1" s="1" t="inlineStr">
         <is>
-          <t>kolloff</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="AGI1" s="1" t="inlineStr">
         <is>
-          <t>improvement</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="AGJ1" s="1" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>overall</t>
         </is>
       </c>
       <c r="AGK1" s="1" t="inlineStr">
         <is>
-          <t>helping</t>
+          <t>part-whole</t>
         </is>
       </c>
       <c r="AGL1" s="1" t="inlineStr">
         <is>
-          <t>graders</t>
+          <t>pie</t>
         </is>
       </c>
       <c r="AGM1" s="1" t="inlineStr">
         <is>
-          <t>extent</t>
+          <t>piece</t>
         </is>
       </c>
       <c r="AGN1" s="1" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>principle</t>
         </is>
       </c>
       <c r="AGO1" s="1" t="inlineStr">
         <is>
-          <t>feldhusen</t>
+          <t>principled</t>
         </is>
       </c>
       <c r="AGP1" s="1" t="inlineStr">
         <is>
-          <t>evaluators</t>
+          <t>principles</t>
         </is>
       </c>
       <c r="AGQ1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>might</t>
         </is>
       </c>
       <c r="AGR1" s="1" t="inlineStr">
         <is>
+          <t>propositional</t>
+        </is>
+      </c>
+      <c r="AGS1" s="1" t="inlineStr">
+        <is>
+          <t>quantities</t>
+        </is>
+      </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>serious</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>solving</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>steps</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
+        <is>
+          <t>supported</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>taken</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>understood</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>mathematical</t>
+        </is>
+      </c>
+      <c r="AHF1" s="1" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="AHG1" s="1" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="AHH1" s="1" t="inlineStr">
+        <is>
+          <t>procedural</t>
+        </is>
+      </c>
+      <c r="AHI1" s="1" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="AHJ1" s="1" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="AHK1" s="1" t="inlineStr">
+        <is>
+          <t>differ</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
+          <t>contention</t>
+        </is>
+      </c>
+      <c r="AHM1" s="1" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="AHN1" s="1" t="inlineStr">
+        <is>
+          <t>determinants</t>
+        </is>
+      </c>
+      <c r="AHO1" s="1" t="inlineStr">
+        <is>
+          <t>reducing</t>
+        </is>
+      </c>
+      <c r="AHP1" s="1" t="inlineStr">
+        <is>
+          <t>rd</t>
+        </is>
+      </c>
+      <c r="AHQ1" s="1" t="inlineStr">
+        <is>
+          <t>rates</t>
+        </is>
+      </c>
+      <c r="AHR1" s="1" t="inlineStr">
+        <is>
+          <t>proved</t>
+        </is>
+      </c>
+      <c r="AHS1" s="1" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="AHT1" s="1" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AHU1" s="1" t="inlineStr">
+        <is>
+          <t>androgynous</t>
+        </is>
+      </c>
+      <c r="AHV1" s="1" t="inlineStr">
+        <is>
+          <t>problems</t>
+        </is>
+      </c>
+      <c r="AHW1" s="1" t="inlineStr">
+        <is>
+          <t>probably</t>
+        </is>
+      </c>
+      <c r="AHX1" s="1" t="inlineStr">
+        <is>
+          <t>behaved</t>
+        </is>
+      </c>
+      <c r="AHY1" s="1" t="inlineStr">
+        <is>
+          <t>perspective</t>
+        </is>
+      </c>
+      <c r="AHZ1" s="1" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="AIA1" s="1" t="inlineStr">
+        <is>
+          <t>anovas</t>
+        </is>
+      </c>
+      <c r="AIB1" s="1" t="inlineStr">
+        <is>
+          <t>self-related</t>
+        </is>
+      </c>
+      <c r="AIC1" s="1" t="inlineStr">
+        <is>
+          <t>situation</t>
+        </is>
+      </c>
+      <c r="AID1" s="1" t="inlineStr">
+        <is>
+          <t>statistics</t>
+        </is>
+      </c>
+      <c r="AIE1" s="1" t="inlineStr">
+        <is>
+          <t>aforementioned</t>
+        </is>
+      </c>
+      <c r="AIF1" s="1" t="inlineStr">
+        <is>
+          <t>successful</t>
+        </is>
+      </c>
+      <c r="AIG1" s="1" t="inlineStr">
+        <is>
+          <t>accepting</t>
+        </is>
+      </c>
+      <c r="AIH1" s="1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="AII1" s="1" t="inlineStr">
+        <is>
+          <t>acceptance</t>
+        </is>
+      </c>
+      <c r="AIJ1" s="1" t="inlineStr">
+        <is>
+          <t>topical</t>
+        </is>
+      </c>
+      <c r="AIK1" s="1" t="inlineStr">
+        <is>
+          <t>tried</t>
+        </is>
+      </c>
+      <c r="AIL1" s="1" t="inlineStr">
+        <is>
+          <t>underestimate</t>
+        </is>
+      </c>
+      <c r="AIM1" s="1" t="inlineStr">
+        <is>
+          <t>university</t>
+        </is>
+      </c>
+      <c r="AIN1" s="1" t="inlineStr">
+        <is>
           <t>urgent</t>
         </is>
       </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>might</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
-        <is>
-          <t>university</t>
-        </is>
-      </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>misconceptions</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>effective-additional</t>
-        </is>
-      </c>
-      <c r="AGX1" s="1" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
-        <is>
-          <t>expressed</t>
-        </is>
-      </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>expression</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>major</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
+      <c r="AIO1" s="1" t="inlineStr">
         <is>
           <t>way</t>
         </is>
       </c>
-      <c r="AHD1" s="1" t="inlineStr">
-        <is>
-          <t>fewer</t>
-        </is>
-      </c>
-      <c r="AHE1" s="1" t="inlineStr">
-        <is>
-          <t>fifth</t>
-        </is>
-      </c>
-      <c r="AHF1" s="1" t="inlineStr">
-        <is>
-          <t>mathematical</t>
-        </is>
-      </c>
-      <c r="AHG1" s="1" t="inlineStr">
-        <is>
-          <t>probably</t>
-        </is>
-      </c>
-      <c r="AHH1" s="1" t="inlineStr">
-        <is>
-          <t>displayed</t>
-        </is>
-      </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>many</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>perspective</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>larger</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>justification</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
-        <is>
-          <t>assessing</t>
-        </is>
-      </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>days</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="AHQ1" s="1" t="inlineStr">
-        <is>
-          <t>statistics</t>
-        </is>
-      </c>
-      <c r="AHR1" s="1" t="inlineStr">
-        <is>
-          <t>situation</t>
-        </is>
-      </c>
-      <c r="AHS1" s="1" t="inlineStr">
-        <is>
-          <t>rd</t>
-        </is>
-      </c>
-      <c r="AHT1" s="1" t="inlineStr">
-        <is>
-          <t>technique</t>
-        </is>
-      </c>
-      <c r="AHU1" s="1" t="inlineStr">
-        <is>
-          <t>numbers</t>
-        </is>
-      </c>
-      <c r="AHV1" s="1" t="inlineStr">
-        <is>
-          <t>self-related</t>
-        </is>
-      </c>
-      <c r="AHW1" s="1" t="inlineStr">
-        <is>
-          <t>proved</t>
-        </is>
-      </c>
-      <c r="AHX1" s="1" t="inlineStr">
-        <is>
-          <t>problems</t>
-        </is>
-      </c>
-      <c r="AHY1" s="1" t="inlineStr">
-        <is>
-          <t>they</t>
-        </is>
-      </c>
-      <c r="AHZ1" s="1" t="inlineStr">
-        <is>
-          <t>topical</t>
-        </is>
-      </c>
-      <c r="AIA1" s="1" t="inlineStr">
-        <is>
-          <t>underestimate</t>
-        </is>
-      </c>
-      <c r="AIB1" s="1" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="AIC1" s="1" t="inlineStr">
-        <is>
-          <t>tried</t>
-        </is>
-      </c>
-      <c r="AID1" s="1" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AIE1" s="1" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="AIF1" s="1" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
-      <c r="AIG1" s="1" t="inlineStr">
-        <is>
-          <t>additional</t>
-        </is>
-      </c>
-      <c r="AIH1" s="1" t="inlineStr">
-        <is>
-          <t>collected</t>
-        </is>
-      </c>
-      <c r="AII1" s="1" t="inlineStr">
-        <is>
-          <t>concept</t>
-        </is>
-      </c>
-      <c r="AIJ1" s="1" t="inlineStr">
-        <is>
-          <t>reducing</t>
-        </is>
-      </c>
-      <c r="AIK1" s="1" t="inlineStr">
-        <is>
-          <t>conceptualization</t>
-        </is>
-      </c>
-      <c r="AIL1" s="1" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="AIM1" s="1" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="AIN1" s="1" t="inlineStr">
-        <is>
-          <t>optimism</t>
-        </is>
-      </c>
-      <c r="AIO1" s="1" t="inlineStr">
+      <c r="AIP1" s="1" t="inlineStr">
+        <is>
+          <t>14-year-old</t>
+        </is>
+      </c>
+      <c r="AIQ1" s="1" t="inlineStr">
+        <is>
+          <t>comparision</t>
+        </is>
+      </c>
+      <c r="AIR1" s="1" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="AIS1" s="1" t="inlineStr">
+        <is>
+          <t>traits</t>
+        </is>
+      </c>
+      <c r="AIT1" s="1" t="inlineStr">
+        <is>
+          <t>attempts</t>
+        </is>
+      </c>
+      <c r="AIU1" s="1" t="inlineStr">
+        <is>
+          <t>emphasis</t>
+        </is>
+      </c>
+      <c r="AIV1" s="1" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="AIW1" s="1" t="inlineStr">
+        <is>
+          <t>describe</t>
+        </is>
+      </c>
+      <c r="AIX1" s="1" t="inlineStr">
+        <is>
+          <t>cognitions</t>
+        </is>
+      </c>
+      <c r="AIY1" s="1" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="AIZ1" s="1" t="inlineStr">
+        <is>
+          <t>carried</t>
+        </is>
+      </c>
+      <c r="AJA1" s="1" t="inlineStr">
+        <is>
+          <t>examine</t>
+        </is>
+      </c>
+      <c r="AJB1" s="1" t="inlineStr">
+        <is>
+          <t>effect</t>
+        </is>
+      </c>
+      <c r="AJC1" s="1" t="inlineStr">
+        <is>
+          <t>hypothetical</t>
+        </is>
+      </c>
+      <c r="AJD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal</t>
+        </is>
+      </c>
+      <c r="AJE1" s="1" t="inlineStr">
+        <is>
+          <t>positively</t>
+        </is>
+      </c>
+      <c r="AJF1" s="1" t="inlineStr">
+        <is>
+          <t>rated</t>
+        </is>
+      </c>
+      <c r="AJG1" s="1" t="inlineStr">
         <is>
           <t>repeated-measures</t>
         </is>
       </c>
-      <c r="AIP1" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AIQ1" s="1" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AIR1" s="1" t="inlineStr">
-        <is>
-          <t>androgynous</t>
-        </is>
-      </c>
-      <c r="AIS1" s="1" t="inlineStr">
-        <is>
-          <t>positively</t>
-        </is>
-      </c>
-      <c r="AIT1" s="1" t="inlineStr">
-        <is>
-          <t>behaved</t>
-        </is>
-      </c>
-      <c r="AIU1" s="1" t="inlineStr">
-        <is>
-          <t>marginal</t>
-        </is>
-      </c>
-      <c r="AIV1" s="1" t="inlineStr">
-        <is>
-          <t>comparision</t>
-        </is>
-      </c>
-      <c r="AIW1" s="1" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="AIX1" s="1" t="inlineStr">
-        <is>
-          <t>hypothetical</t>
-        </is>
-      </c>
-      <c r="AIY1" s="1" t="inlineStr">
-        <is>
-          <t>effect</t>
-        </is>
-      </c>
-      <c r="AIZ1" s="1" t="inlineStr">
+      <c r="AJH1" s="1" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="AJI1" s="1" t="inlineStr">
+        <is>
+          <t>enough</t>
+        </is>
+      </c>
+      <c r="AJJ1" s="1" t="inlineStr">
+        <is>
+          <t>explain</t>
+        </is>
+      </c>
+      <c r="AJK1" s="1" t="inlineStr">
+        <is>
+          <t>extremely</t>
+        </is>
+      </c>
+      <c r="AJL1" s="1" t="inlineStr">
+        <is>
+          <t>german</t>
+        </is>
+      </c>
+      <c r="AJM1" s="1" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="AJN1" s="1" t="inlineStr">
+        <is>
+          <t>undifferentiated</t>
+        </is>
+      </c>
+      <c r="AJO1" s="1" t="inlineStr">
+        <is>
+          <t>ha</t>
+        </is>
+      </c>
+      <c r="AJP1" s="1" t="inlineStr">
+        <is>
+          <t>laboratory</t>
+        </is>
+      </c>
+      <c r="AJQ1" s="1" t="inlineStr">
+        <is>
+          <t>satisfied</t>
+        </is>
+      </c>
+      <c r="AJR1" s="1" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="AJS1" s="1" t="inlineStr">
+        <is>
+          <t>masculine</t>
+        </is>
+      </c>
+      <c r="AJT1" s="1" t="inlineStr">
+        <is>
+          <t>males</t>
+        </is>
+      </c>
+      <c r="AJU1" s="1" t="inlineStr">
+        <is>
+          <t>lowest</t>
+        </is>
+      </c>
+      <c r="AJV1" s="1" t="inlineStr">
+        <is>
+          <t>life</t>
+        </is>
+      </c>
+      <c r="AJW1" s="1" t="inlineStr">
+        <is>
+          <t>lowered</t>
+        </is>
+      </c>
+      <c r="AJX1" s="1" t="inlineStr">
+        <is>
+          <t>natural</t>
+        </is>
+      </c>
+      <c r="AJY1" s="1" t="inlineStr">
         <is>
           <t>enrolled</t>
         </is>
       </c>
-      <c r="AJA1" s="1" t="inlineStr">
-        <is>
-          <t>examine</t>
-        </is>
-      </c>
-      <c r="AJB1" s="1" t="inlineStr">
-        <is>
-          <t>differ</t>
-        </is>
-      </c>
-      <c r="AJC1" s="1" t="inlineStr">
-        <is>
-          <t>life</t>
-        </is>
-      </c>
-      <c r="AJD1" s="1" t="inlineStr">
-        <is>
-          <t>lowest</t>
-        </is>
-      </c>
-      <c r="AJE1" s="1" t="inlineStr">
-        <is>
-          <t>rated</t>
-        </is>
-      </c>
-      <c r="AJF1" s="1" t="inlineStr">
-        <is>
-          <t>series</t>
-        </is>
-      </c>
-      <c r="AJG1" s="1" t="inlineStr">
-        <is>
-          <t>masculine</t>
-        </is>
-      </c>
-      <c r="AJH1" s="1" t="inlineStr">
-        <is>
-          <t>traits</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>emphasis</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>enough</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>explain</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>extremely</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>germany</t>
-        </is>
-      </c>
-      <c r="AJP1" s="1" t="inlineStr">
-        <is>
-          <t>ha</t>
-        </is>
-      </c>
-      <c r="AJQ1" s="1" t="inlineStr">
-        <is>
-          <t>cognitions</t>
-        </is>
-      </c>
-      <c r="AJR1" s="1" t="inlineStr">
-        <is>
-          <t>laboratory</t>
-        </is>
-      </c>
-      <c r="AJS1" s="1" t="inlineStr">
-        <is>
-          <t>like</t>
-        </is>
-      </c>
-      <c r="AJT1" s="1" t="inlineStr">
-        <is>
-          <t>lowered</t>
-        </is>
-      </c>
-      <c r="AJU1" s="1" t="inlineStr">
-        <is>
-          <t>natural</t>
-        </is>
-      </c>
-      <c r="AJV1" s="1" t="inlineStr">
-        <is>
-          <t>paid</t>
-        </is>
-      </c>
-      <c r="AJW1" s="1" t="inlineStr">
+      <c r="AJZ1" s="1" t="inlineStr">
         <is>
           <t>view</t>
-        </is>
-      </c>
-      <c r="AJX1" s="1" t="inlineStr">
-        <is>
-          <t>males</t>
-        </is>
-      </c>
-      <c r="AJY1" s="1" t="inlineStr">
-        <is>
-          <t>satisfied</t>
-        </is>
-      </c>
-      <c r="AJZ1" s="1" t="inlineStr">
-        <is>
-          <t>14-year-old</t>
-        </is>
-      </c>
-      <c r="AKA1" s="1" t="inlineStr">
-        <is>
-          <t>accepting</t>
-        </is>
-      </c>
-      <c r="AKB1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="AKC1" s="1" t="inlineStr">
-        <is>
-          <t>acceptance</t>
-        </is>
-      </c>
-      <c r="AKD1" s="1" t="inlineStr">
-        <is>
-          <t>reason</t>
-        </is>
-      </c>
-      <c r="AKE1" s="1" t="inlineStr">
-        <is>
-          <t>quantities</t>
-        </is>
-      </c>
-      <c r="AKF1" s="1" t="inlineStr">
-        <is>
-          <t>propositional</t>
-        </is>
-      </c>
-      <c r="AKG1" s="1" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AKH1" s="1" t="inlineStr">
-        <is>
-          <t>procedural</t>
-        </is>
-      </c>
-      <c r="AKI1" s="1" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="AKJ1" s="1" t="inlineStr">
-        <is>
-          <t>principles</t>
-        </is>
-      </c>
-      <c r="AKK1" s="1" t="inlineStr">
-        <is>
-          <t>principled</t>
-        </is>
-      </c>
-      <c r="AKL1" s="1" t="inlineStr">
-        <is>
-          <t>principle</t>
-        </is>
-      </c>
-      <c r="AKM1" s="1" t="inlineStr">
-        <is>
-          <t>piece</t>
-        </is>
-      </c>
-      <c r="AKN1" s="1" t="inlineStr">
-        <is>
-          <t>pie</t>
-        </is>
-      </c>
-      <c r="AKO1" s="1" t="inlineStr">
-        <is>
-          <t>part-whole</t>
-        </is>
-      </c>
-      <c r="AKP1" s="1" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="AKQ1" s="1" t="inlineStr">
-        <is>
-          <t>serious</t>
-        </is>
-      </c>
-      <c r="AKR1" s="1" t="inlineStr">
-        <is>
-          <t>aforementioned</t>
-        </is>
-      </c>
-      <c r="AKS1" s="1" t="inlineStr">
-        <is>
-          <t>determinants</t>
-        </is>
-      </c>
-      <c r="AKT1" s="1" t="inlineStr">
-        <is>
-          <t>anovas</t>
-        </is>
-      </c>
-      <c r="AKU1" s="1" t="inlineStr">
-        <is>
-          <t>undifferentiated</t>
-        </is>
-      </c>
-      <c r="AKV1" s="1" t="inlineStr">
-        <is>
-          <t>clinical</t>
-        </is>
-      </c>
-      <c r="AKW1" s="1" t="inlineStr">
-        <is>
-          <t>carried</t>
-        </is>
-      </c>
-      <c r="AKX1" s="1" t="inlineStr">
-        <is>
-          <t>contention</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>attempts</t>
-        </is>
-      </c>
-      <c r="ALA1" s="1" t="inlineStr">
-        <is>
-          <t>understood</t>
-        </is>
-      </c>
-      <c r="ALB1" s="1" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="ALC1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="ALD1" s="1" t="inlineStr">
-        <is>
-          <t>taken</t>
-        </is>
-      </c>
-      <c r="ALE1" s="1" t="inlineStr">
-        <is>
-          <t>supported</t>
-        </is>
-      </c>
-      <c r="ALF1" s="1" t="inlineStr">
-        <is>
-          <t>steps</t>
-        </is>
-      </c>
-      <c r="ALG1" s="1" t="inlineStr">
-        <is>
-          <t>solving</t>
-        </is>
-      </c>
-      <c r="ALH1" s="1" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="ALI1" s="1" t="inlineStr">
-        <is>
-          <t>describe</t>
-        </is>
-      </c>
-      <c r="ALJ1" s="1" t="inlineStr">
-        <is>
-          <t>rates</t>
         </is>
       </c>
     </row>
@@ -5429,121 +5249,121 @@
         <v>1996</v>
       </c>
       <c r="C2" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="D2" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="E2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="F2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
         <v>0.96</v>
       </c>
       <c r="L2" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9400000000000002</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9200000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8900000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.86</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7600000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="V2" t="n">
         <v>0.76</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7500000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="X2" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="AC2" t="n">
         <v>0.65</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.62</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AP2" t="n">
         <v>0.54</v>
@@ -5558,22 +5378,22 @@
         <v>0.54</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.5</v>
@@ -5582,16 +5402,16 @@
         <v>0.5</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BD2" t="n">
         <v>0.49</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BE2" t="n">
         <v>0.49</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.48</v>
       </c>
       <c r="BF2" t="n">
         <v>0.48</v>
@@ -5603,7 +5423,7 @@
         <v>0.48</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="BJ2" t="n">
         <v>0.47</v>
@@ -5615,10 +5435,10 @@
         <v>0.47</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BO2" t="n">
         <v>0.46</v>
@@ -5627,13 +5447,13 @@
         <v>0.46</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="BR2" t="n">
         <v>0.45</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="BT2" t="n">
         <v>0.44</v>
@@ -5645,16 +5465,16 @@
         <v>0.44</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="CA2" t="n">
         <v>0.43</v>
@@ -5663,127 +5483,127 @@
         <v>0.43</v>
       </c>
       <c r="CC2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CO2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CP2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CQ2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CR2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CS2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CH2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="CJ2" t="n">
+      <c r="CT2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CU2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CV2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CW2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CX2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CY2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CZ2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="DA2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DB2" t="n">
         <v>0.39</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="DC2" t="n">
         <v>0.39</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="DD2" t="n">
         <v>0.39</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="DE2" t="n">
         <v>0.39</v>
       </c>
-      <c r="CU2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CV2" t="n">
+      <c r="DF2" t="n">
         <v>0.38</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="DG2" t="n">
         <v>0.38</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="DH2" t="n">
         <v>0.38</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DI2" t="n">
         <v>0.38</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DJ2" t="n">
         <v>0.38</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DK2" t="n">
         <v>0.38</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DL2" t="n">
         <v>0.38</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DM2" t="n">
         <v>0.38</v>
       </c>
-      <c r="DD2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.37</v>
-      </c>
       <c r="DN2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.37</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.37</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="DR2" t="n">
         <v>0.37</v>
@@ -5798,19 +5618,19 @@
         <v>0.37</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.3699999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="EA2" t="n">
         <v>0.36</v>
@@ -5834,7 +5654,7 @@
         <v>0.36</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EI2" t="n">
         <v>0.35</v>
@@ -5900,22 +5720,22 @@
         <v>0.33</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FJ2" t="n">
         <v>0.32</v>
@@ -5936,79 +5756,79 @@
         <v>0.32</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.32</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="GK2" t="n">
         <v>0.29</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="GO2" t="n">
         <v>0.28</v>
@@ -6032,49 +5852,49 @@
         <v>0.28</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HK2" t="n">
         <v>0.26</v>
@@ -6101,7 +5921,7 @@
         <v>0.26</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="HT2" t="n">
         <v>0.25</v>
@@ -6134,31 +5954,31 @@
         <v>0.25</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="II2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IM2" t="n">
         <v>0.24</v>
@@ -6173,28 +5993,28 @@
         <v>0.24</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IY2" t="n">
         <v>0.23</v>
@@ -6224,19 +6044,19 @@
         <v>0.23</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="JM2" t="n">
         <v>0.22</v>
@@ -6260,34 +6080,34 @@
         <v>0.22</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KD2" t="n">
         <v>0.21</v>
@@ -6320,34 +6140,34 @@
         <v>0.21</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KX2" t="n">
         <v>0.2</v>
@@ -6365,34 +6185,34 @@
         <v>0.2</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LM2" t="n">
         <v>0.19</v>
@@ -6452,73 +6272,73 @@
         <v>0.19</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MG2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MR2" t="n">
         <v>0.18</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NC2" t="n">
         <v>0.17</v>
@@ -6539,46 +6359,46 @@
         <v>0.17</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NW2" t="n">
         <v>0.16</v>
@@ -6737,40 +6557,40 @@
         <v>0.16</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="QC2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="QD2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="QE2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="QG2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="QI2" t="n">
         <v>0.15</v>
@@ -6869,175 +6689,175 @@
         <v>0.15</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RP2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RS2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RT2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RU2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SD2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SE2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SF2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SG2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SH2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SI2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SJ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SK2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SL2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="ST2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SW2" t="n">
         <v>0.13</v>
       </c>
       <c r="SX2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SY2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TA2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TB2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TE2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TN2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TR2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TS2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="TT2" t="n">
         <v>0.12</v>
@@ -7058,76 +6878,76 @@
         <v>0.12</v>
       </c>
       <c r="TZ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UA2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UB2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UC2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UD2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UE2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UF2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UG2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UH2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UI2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UJ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UN2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UO2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UP2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UQ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UR2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="US2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UT2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UW2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="UX2" t="n">
         <v>0.11</v>
@@ -7265,13 +7085,13 @@
         <v>0.11</v>
       </c>
       <c r="WQ2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WR2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WS2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WT2" t="n">
         <v>0.1</v>
@@ -7637,85 +7457,85 @@
         <v>0.1</v>
       </c>
       <c r="ABK2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABL2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABM2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABN2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABO2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABP2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABQ2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABR2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABS2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABT2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABU2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABV2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABW2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABX2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABY2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ABZ2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ACA2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ACB2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ACC2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ACD2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ACE2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ACF2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ACG2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ACH2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ACI2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ACJ2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ACK2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ACL2" t="n">
         <v>0.09</v>
@@ -7955,97 +7775,97 @@
         <v>0.09</v>
       </c>
       <c r="AFM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFR2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFS2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFW2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFX2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFY2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AFZ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGA2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGB2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGD2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGR2" t="n">
         <v>0.08</v>
@@ -8306,114 +8126,6 @@
         <v>0.08</v>
       </c>
       <c r="AJZ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKA2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKB2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKC2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKD2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKE2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKF2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKG2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKJ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKK2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKL2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKM2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKN2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKO2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKP2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKQ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKR2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKS2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKT2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKU2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKV2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKW2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKX2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKY2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKZ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALA2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALB2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALC2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALD2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALE2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALF2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALG2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALJ2" t="n">
         <v>0.08</v>
       </c>
     </row>
